--- a/biology/Microbiologie/Pseudomonadales/Pseudomonadales.xlsx
+++ b/biology/Microbiologie/Pseudomonadales/Pseudomonadales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Pseudomonadales sont un ordre de bacilles Gram négatifs de la classe des Gammaproteobacteria. Son nom provient du genre Pseudomonas qui est le genre type de cet ordre.
 Il contient des genres pathogènes pour l'être humain tels que Pseudomonas mais aussi Acinetobacter ou Moraxella.
@@ -514,13 +526,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Familles validement publiées
-Selon la LPSN  (8 novembre 2022)[2] :
+          <t>Familles validement publiées</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (8 novembre 2022) :
 Moraxellaceae Rossau et al. 1991
 Pseudomonadaceae Winslow et al. 1917
-Ventosimonadaceae Lin et al. 2016
-Familles en attente de publication valide
-Selon la LPSN  (8 novembre 2022)[2] :
+Ventosimonadaceae Lin et al. 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pseudomonadales</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pseudomonadales</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste de familles</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Familles en attente de publication valide</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (8 novembre 2022) :
 « Chlorobacteriaceae » Geitler &amp; Pascher 1925
 « Methanomonadaceae » Breed et al. 1957
 « Siderocapsaceae » Pribram 1929
